--- a/app/請求書.xlsx
+++ b/app/請求書.xlsx
@@ -131,13 +131,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>株式会社株式会社ジェーシーエル</t>
-    <rPh sb="4" eb="8">
-      <t>カブシキカイシャ</t>
-    </rPh>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
     <t>〒335-0002</t>
     <phoneticPr fontId="16"/>
   </si>
@@ -149,7 +142,14 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>TEL/ＦＡＸ：　070</t>
+    <t>TEL/ＦＡＸ：　070-1448-1666</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>株式会社ジェーシーエル</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキカイシャ</t>
+    </rPh>
     <phoneticPr fontId="16"/>
   </si>
 </sst>
@@ -163,9 +163,9 @@
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="179" formatCode="#,##0.0&quot;人/月&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="182" formatCode="&quot;△&quot;\ #,##0;&quot;▲&quot;\ #,##0"/>
-    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="186" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="&quot;△&quot;\ #,##0;&quot;▲&quot;\ #,##0"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -699,7 +699,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -740,13 +740,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1138,7 +1138,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="I7" s="48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1">
@@ -1159,10 +1159,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="50" t="s">
         <v>31</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" customHeight="1">
@@ -1174,7 +1174,7 @@
       <c r="D10" s="3"/>
       <c r="G10" s="5"/>
       <c r="I10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1">

--- a/app/請求書.xlsx
+++ b/app/請求書.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>NK-201807-001</t>
   </si>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>時間精算</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>摘要</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -67,26 +63,10 @@
     <t>人・月</t>
   </si>
   <si>
-    <t>人・月</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>時間</t>
   </si>
   <si>
-    <t>システム開発支援【担当太郎】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間精算【担当太郎】</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -316,18 +296,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -541,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -549,27 +523,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -591,7 +554,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,26 +568,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,12 +586,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -679,26 +619,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,10 +998,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25"/>
@@ -1058,455 +1016,452 @@
     <col min="9" max="9" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="63" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="63" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="21">
+      <c r="A2" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="49">
         <v>43009</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A8" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="A9" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29" t="str">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="D11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="str">
         <f>"￥ "&amp;FIXED(H29,-1)&amp;" -"</f>
-        <v>￥ 715,000 -</v>
-      </c>
-      <c r="E12" s="30" t="s">
+        <v>￥ 0 -</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="45">
+      <c r="F12" s="27"/>
+      <c r="G12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="56">
         <v>41912</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1" thickTop="1"/>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="58" t="s">
+    <row r="13" spans="1:9" ht="9.9499999999999993" customHeight="1" thickTop="1"/>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="14">
-        <v>500000</v>
-      </c>
-      <c r="H15" s="14">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="str">
         <f t="shared" ref="H15:H26" si="0">IF(AND(G15="",E15=""),"",SUM(E15*G15))</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A16" s="13">
-        <v>2</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="13">
-        <v>60</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="14">
-        <v>2500</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I15" s="57"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27" t="str">
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27" t="str">
+      <c r="A20" s="21"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="str">
         <f t="shared" ref="H20:H21" si="1">IF(AND(G20="",E20=""),"",SUM(E20*G20))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27" t="str">
+      <c r="A21" s="21"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="str">
+      <c r="A22" s="21"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27" t="str">
+      <c r="A23" s="21"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27" t="str">
+      <c r="A24" s="21"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27" t="str">
+      <c r="A25" s="21"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27" t="str">
+      <c r="A26" s="21"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="12">
         <f>SUM(H15:H26)</f>
-        <v>650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="G28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="16">
+      <c r="G28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="11">
         <f>H27*0.1</f>
-        <v>65000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="41.1" customHeight="1">
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="11">
         <f>H27+H28</f>
-        <v>715000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" ht="18">
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="A31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="15">
       <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="15">
-      <c r="G36" s="11"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A31:B34"/>
@@ -1523,7 +1478,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1555,12 +1509,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
